--- a/b11.xlsx
+++ b/b11.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasarayv\Downloads\iot\reports\final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795B424D-A8B2-4E57-A5F6-13FFB47601A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="20370" yWindow="-3960" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="area" sheetId="1" r:id="rId1"/>
     <sheet name="power" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>RN</t>
   </si>
@@ -27,14 +33,37 @@
   </si>
   <si>
     <t>DS</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>KeySize=32</t>
+  </si>
+  <si>
+    <t>KeySize=64</t>
+  </si>
+  <si>
+    <t>KeySize=128</t>
+  </si>
+  <si>
+    <t>KeySize=256</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -62,14 +91,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -116,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,9 +191,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,6 +243,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -357,91 +436,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.01</v>
-      </c>
-      <c r="C2">
-        <v>-0.001615283850367877</v>
-      </c>
-      <c r="D2">
-        <v>-0.002432834610948749</v>
-      </c>
-      <c r="E2">
-        <v>-0.005691905222950045</v>
-      </c>
-      <c r="F2">
-        <v>0.009386306740161745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B2" s="2">
+        <v>-1.6152838503678769E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-2.4328346109487491E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-5.6919052229500453E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9.3863067401617449E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="C3">
-        <v>-0.001615283850367877</v>
-      </c>
-      <c r="D3">
-        <v>-0.004016747581069634</v>
-      </c>
-      <c r="E3">
-        <v>-0.003875487664956873</v>
-      </c>
-      <c r="F3">
-        <v>0.001430410947013713</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B3" s="2">
+        <v>-1.6152838503678769E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-4.0167475810696336E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-3.8754876649568729E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.4304109470137129E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>-0.001615283850367877</v>
-      </c>
-      <c r="D4">
-        <v>-0.005075286247325986</v>
-      </c>
-      <c r="E4">
-        <v>-0.005336321199736248</v>
-      </c>
-      <c r="F4">
-        <v>0.003367218545925005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B4" s="2">
+        <v>-1.6152838503678769E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-5.0752862473259861E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-5.3363211997362481E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.3672185459250048E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-      <c r="C5">
-        <v>0.1125062523000245</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="2">
+        <v>0.11250625230002451</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.1096003177516689</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="2">
         <v>0.102970256462774</v>
       </c>
-      <c r="F5">
-        <v>0.09512245626273103</v>
+      <c r="E5" s="2">
+        <v>9.5122456262731026E-2</v>
       </c>
     </row>
   </sheetData>
@@ -450,91 +536,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.01</v>
-      </c>
-      <c r="C2">
-        <v>0.003751933094860669</v>
-      </c>
-      <c r="D2">
-        <v>0.02294649304085849</v>
-      </c>
-      <c r="E2">
-        <v>0.01301529600212475</v>
-      </c>
-      <c r="F2">
-        <v>0.008525259567263506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B2" s="2">
+        <v>3.7519330948606691E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.2946493040858489E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.3015296002124749E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.5252595672635056E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="C3">
-        <v>0.003751933094860669</v>
-      </c>
-      <c r="D3">
-        <v>-0.005636475805536857</v>
-      </c>
-      <c r="E3">
-        <v>-0.0008271847775868286</v>
-      </c>
-      <c r="F3">
-        <v>0.002001289190991229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B3" s="2">
+        <v>3.7519330948606691E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-5.636475805536857E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-8.271847775868286E-4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.0012891909912292E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>0.003751933094860669</v>
-      </c>
-      <c r="D4">
-        <v>-0.01184617129641152</v>
-      </c>
-      <c r="E4">
-        <v>-0.002642011580586842</v>
-      </c>
-      <c r="F4">
-        <v>0.03326444737693898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B4" s="2">
+        <v>3.7519330948606691E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-1.1846171296411519E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-2.6420115805868422E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.3264447376938983E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-      <c r="C5">
-        <v>0.02979248451449235</v>
-      </c>
-      <c r="D5">
-        <v>0.02644058793748815</v>
-      </c>
-      <c r="E5">
-        <v>0.01682366578415187</v>
-      </c>
-      <c r="F5">
-        <v>0.02074767544478484</v>
+      <c r="B5" s="2">
+        <v>2.9792484514492349E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.6440587937488151E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.682366578415187E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.0747675444784841E-2</v>
       </c>
     </row>
   </sheetData>
